--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Spring.020521.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Spring.020521.xlsx_with_dialog_acts.xlsx
@@ -727,12 +727,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1907,12 +1907,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2327,12 +2327,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2499,12 +2499,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3169,12 +3169,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5781,12 +5781,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6075,12 +6075,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6243,12 +6243,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6327,12 +6327,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7797,12 +7797,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7839,12 +7839,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7965,12 +7965,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8301,12 +8301,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8553,12 +8553,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8721,12 +8721,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9015,12 +9015,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9905,12 +9905,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10115,12 +10115,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10325,12 +10325,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10451,12 +10451,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10871,12 +10871,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11295,12 +11295,12 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11461,12 +11461,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12141,12 +12141,12 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12183,12 +12183,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12267,12 +12267,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12393,12 +12393,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12649,12 +12649,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
